--- a/exports/94.xlsx
+++ b/exports/94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Banque</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Titulaire</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Mr John Dow 084215663 saeesssseot 234 1</t>
   </si>
   <si>
     <t>Période</t>
@@ -46,25 +46,22 @@
     <t>Sens</t>
   </si>
   <si>
-    <t>29 Apr 2021</t>
-  </si>
-  <si>
-    <t>01 Apr to Account name Mr John Doe Your Bank Account details Date Details</t>
-  </si>
-  <si>
-    <t>01 Apr 2021</t>
-  </si>
-  <si>
-    <t>BALANCE BROUGHT FORWARD</t>
+    <t>01 Apr 2024</t>
   </si>
   <si>
     <t>WINDIXIE FOOD MARKET</t>
   </si>
   <si>
+    <t>300.00 9685.50</t>
+  </si>
+  <si>
     <t>03 Apr 2021</t>
   </si>
   <si>
-    <t>FPL BILL PAYMENT #ACH2133 CODE 343.0</t>
+    <t>FPL BILL PAYMENT #ACH CODE 343.0</t>
+  </si>
+  <si>
+    <t>2133 70.00 9615.50</t>
   </si>
   <si>
     <t>06 Apr 2021</t>
@@ -73,25 +70,40 @@
     <t>FL DISTRICT DESIGN FL, 33313</t>
   </si>
   <si>
-    <t>PAYROLL PAYMENT 22765556 GRABBA GUMMY</t>
+    <t>200.00 9415.50</t>
+  </si>
+  <si>
+    <t>PAYROLL PAYMENT GRABBA GUMMY</t>
+  </si>
+  <si>
+    <t>22765556 2850.00 12385.50</t>
   </si>
   <si>
     <t>08 Apr 2021</t>
   </si>
   <si>
-    <t>38ONLINE TRANSFER TRANSFER TO Property Priorities LLC “652</t>
-  </si>
-  <si>
-    <t>8.98</t>
-  </si>
-  <si>
-    <t>ELECTRONIC DBT EMPLOYMENT DEVEL EDD EFTPMT 413020 1582349784 cc</t>
+    <t>SONLINE TRANSFER 2000.00 105.50 TRANSFER TO Property Priorities LLC 8652</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>08 Apr 2024</t>
+  </si>
+  <si>
+    <t>ELECTRONIC DBT EMPLOYMENT DEVEL EDD EFTPMT 413020 1582349784 cop</t>
+  </si>
+  <si>
+    <t>50.00 10415.50</t>
   </si>
   <si>
     <t>10 Apr 2021</t>
   </si>
   <si>
-    <t>ELECTRONIC DBT T-MOBILE.COM PCS SVC 102620WEB</t>
+    <t>ELECTRONIC DBT T-MOBILE.COM PGS SVC 102620WEB</t>
+  </si>
+  <si>
+    <t>100.00 10315.50</t>
   </si>
   <si>
     <t>Dr</t>
@@ -103,13 +115,16 @@
     <t>DEBIT CARD POS Luckys Food Market Plantation, FL POS 3435 #4235</t>
   </si>
   <si>
-    <t>15 Apr 2021</t>
-  </si>
-  <si>
-    <t>ELECTRONIC DBT Xfinity 6034XFIN 13232 4367452 cep @ Bankstatements:net Contact tel 800-422-3641 ‘se¢ reverse for call times Text phone 800-422-3641 used by deaf or speech impaired customers www.suttonbank.com/ Account Summary Opening Balance 9 Payments in 6000.00 Payments Out 3700.00 Closing Balance 12285.50 Rounting Account number Sheet Number 041215663 ssesossseee 234 i Paid out Paid in Belance 9 300.00 9685.50 70.00 9615.50 200.00 9415.50 2950.00 12365.50 2000.00 10365.50 50.00 10415.50 100.00 10315.50 280.00 1035.50 150.00 9885.50</t>
-  </si>
-  <si>
-    <t>985.50</t>
+    <t>280.00 1035.50</t>
+  </si>
+  <si>
+    <t>15 Apr 2024</t>
+  </si>
+  <si>
+    <t>ELECTRONIC DBT Xfinity XFIN 13232 4367452 cep</t>
+  </si>
+  <si>
+    <t>150.00 9885.50 034</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,100 +509,102 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
